--- a/PAPER_1/inter_ICC_all.xlsx
+++ b/PAPER_1/inter_ICC_all.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://colostate-my.sharepoint.com/personal/khobbs01_colostate_edu/Documents/Desktop/Dissertation/dissertation writing/PAPER 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://colostate-my.sharepoint.com/personal/khobbs01_colostate_edu/Documents/Desktop/Dissertation/headscan_dissertation/PAPER_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="11_F25DC773A252ABDACC1048E4D1DD70DA5ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00C50F83-E402-498D-8A28-9663F86D6C02}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="11_F25DC773A252ABDACC1048E4D1DD70DA5ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D418548E-061F-49C5-BDDB-2238C395D0CC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="30" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="38">
   <si>
     <t>measure</t>
   </si>
@@ -150,84 +150,6 @@
   </si>
   <si>
     <t>phase 2</t>
-  </si>
-  <si>
-    <t>phase 4</t>
-  </si>
-  <si>
-    <t>phase 5</t>
-  </si>
-  <si>
-    <t>phase 6</t>
-  </si>
-  <si>
-    <t>phase 7</t>
-  </si>
-  <si>
-    <t>phase 8</t>
-  </si>
-  <si>
-    <t>phase 9</t>
-  </si>
-  <si>
-    <t>phase 10</t>
-  </si>
-  <si>
-    <t>phase 11</t>
-  </si>
-  <si>
-    <t>phase 12</t>
-  </si>
-  <si>
-    <t>phase 13</t>
-  </si>
-  <si>
-    <t>phase 14</t>
-  </si>
-  <si>
-    <t>phase 15</t>
-  </si>
-  <si>
-    <t>phase 16</t>
-  </si>
-  <si>
-    <t>phase 17</t>
-  </si>
-  <si>
-    <t>phase 18</t>
-  </si>
-  <si>
-    <t>phase 19</t>
-  </si>
-  <si>
-    <t>phase 20</t>
-  </si>
-  <si>
-    <t>phase 21</t>
-  </si>
-  <si>
-    <t>phase 22</t>
-  </si>
-  <si>
-    <t>phase 23</t>
-  </si>
-  <si>
-    <t>phase 24</t>
-  </si>
-  <si>
-    <t>phase 25</t>
-  </si>
-  <si>
-    <t>phase 26</t>
-  </si>
-  <si>
-    <t>phase 27</t>
-  </si>
-  <si>
-    <t>phase 28</t>
-  </si>
-  <si>
-    <t>phase 29</t>
   </si>
 </sst>
 </file>
@@ -275,108 +197,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -654,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56:E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,7 +1618,7 @@
         <v>0.224</v>
       </c>
       <c r="E57" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="F57" t="s">
         <v>4</v>
@@ -1817,7 +1638,7 @@
         <v>0.91500000000000004</v>
       </c>
       <c r="E58" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="F58" t="s">
         <v>4</v>
@@ -1837,7 +1658,7 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F59" t="s">
         <v>4</v>
@@ -1857,7 +1678,7 @@
         <v>0.99299999999999999</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
         <v>4</v>
@@ -1877,7 +1698,7 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="E61" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F61" t="s">
         <v>4</v>
@@ -1897,7 +1718,7 @@
         <v>0.67800000000000005</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s">
         <v>4</v>
@@ -1917,7 +1738,7 @@
         <v>0.98699999999999999</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="F63" t="s">
         <v>4</v>
@@ -1937,7 +1758,7 @@
         <v>0.98199999999999998</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F64" t="s">
         <v>4</v>
@@ -1957,7 +1778,7 @@
         <v>0.95799999999999996</v>
       </c>
       <c r="E65" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="F65" t="s">
         <v>4</v>
@@ -1977,7 +1798,7 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="E66" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="F66" t="s">
         <v>4</v>
@@ -1997,7 +1818,7 @@
         <v>0.99099999999999999</v>
       </c>
       <c r="E67" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F67" t="s">
         <v>4</v>
@@ -2017,7 +1838,7 @@
         <v>0.99199999999999999</v>
       </c>
       <c r="E68" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="F68" t="s">
         <v>4</v>
@@ -2037,7 +1858,7 @@
         <v>0.95199999999999996</v>
       </c>
       <c r="E69" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="F69" t="s">
         <v>4</v>
@@ -2057,7 +1878,7 @@
         <v>0.97799999999999998</v>
       </c>
       <c r="E70" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="F70" t="s">
         <v>4</v>
@@ -2077,7 +1898,7 @@
         <v>0.97</v>
       </c>
       <c r="E71" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F71" t="s">
         <v>4</v>
@@ -2097,7 +1918,7 @@
         <v>0.83599999999999997</v>
       </c>
       <c r="E72" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="F72" t="s">
         <v>4</v>
@@ -2117,7 +1938,7 @@
         <v>0.83</v>
       </c>
       <c r="E73" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="F73" t="s">
         <v>4</v>
@@ -2137,7 +1958,7 @@
         <v>0.88100000000000001</v>
       </c>
       <c r="E74" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="F74" t="s">
         <v>4</v>
@@ -2157,7 +1978,7 @@
         <v>0.99099999999999999</v>
       </c>
       <c r="E75" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="F75" t="s">
         <v>4</v>
@@ -2177,7 +1998,7 @@
         <v>0.94299999999999995</v>
       </c>
       <c r="E76" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F76" t="s">
         <v>4</v>
@@ -2197,7 +2018,7 @@
         <v>0.97699999999999998</v>
       </c>
       <c r="E77" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="F77" t="s">
         <v>4</v>
@@ -2217,7 +2038,7 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="E78" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F78" t="s">
         <v>4</v>
@@ -2237,7 +2058,7 @@
         <v>0.98899999999999999</v>
       </c>
       <c r="E79" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="F79" t="s">
         <v>4</v>
@@ -2257,7 +2078,7 @@
         <v>0.998</v>
       </c>
       <c r="E80" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="F80" t="s">
         <v>4</v>
@@ -2277,7 +2098,7 @@
         <v>0.99099999999999999</v>
       </c>
       <c r="E81" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="F81" t="s">
         <v>4</v>
@@ -2297,7 +2118,7 @@
         <v>0.997</v>
       </c>
       <c r="E82" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F82" t="s">
         <v>4</v>

--- a/PAPER_1/inter_ICC_all.xlsx
+++ b/PAPER_1/inter_ICC_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://colostate-my.sharepoint.com/personal/khobbs01_colostate_edu/Documents/Desktop/Dissertation/headscan_dissertation/PAPER_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="11_F25DC773A252ABDACC1048E4D1DD70DA5ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D418548E-061F-49C5-BDDB-2238C395D0CC}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="11_F25DC773A252ABDACC1048E4D1DD70DA5ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DC68902-9EE3-4390-B1AB-FE1366323B5D}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="30" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29970" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,208 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -475,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56:E82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,13 +710,13 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.94399999999999995</v>
+        <v>0.874</v>
       </c>
       <c r="C2">
-        <v>0.83499999999999996</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="D2">
-        <v>0.98499999999999999</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -529,13 +730,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.67500000000000004</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="C3">
-        <v>-1.2E-2</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D3">
-        <v>0.91400000000000003</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -549,13 +750,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.745</v>
+        <v>-0.20100000000000001</v>
       </c>
       <c r="C4">
-        <v>0.27500000000000002</v>
+        <v>-0.71799999999999997</v>
       </c>
       <c r="D4">
-        <v>0.93</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -569,13 +770,13 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.85899999999999999</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="C5">
-        <v>0.54600000000000004</v>
+        <v>-0.158</v>
       </c>
       <c r="D5">
-        <v>0.96299999999999997</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -589,13 +790,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.96799999999999997</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="C6">
-        <v>0.90700000000000003</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="D6">
-        <v>0.99199999999999999</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -609,13 +810,13 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.41799999999999998</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="C7">
-        <v>-0.59599999999999997</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D7">
-        <v>0.85</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -629,13 +830,13 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.89100000000000001</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="C8">
-        <v>0.69299999999999995</v>
+        <v>0.253</v>
       </c>
       <c r="D8">
-        <v>0.97</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -649,13 +850,13 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.82399999999999995</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="C9">
-        <v>0.48599999999999999</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="D9">
-        <v>0.95199999999999996</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -669,13 +870,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.71499999999999997</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>0.15</v>
+        <v>0.37</v>
       </c>
       <c r="D10">
-        <v>0.92400000000000004</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -689,13 +890,13 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.90700000000000003</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="C11">
-        <v>0.73</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="D11">
-        <v>0.97499999999999998</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -709,13 +910,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.93799999999999994</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="C12">
-        <v>0.81699999999999995</v>
+        <v>0.435</v>
       </c>
       <c r="D12">
-        <v>0.98299999999999998</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -729,13 +930,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.89900000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="C13">
-        <v>0.71599999999999997</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="D13">
-        <v>0.97199999999999998</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -749,13 +950,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.90600000000000003</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="C14">
-        <v>0.73299999999999998</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="D14">
-        <v>0.97499999999999998</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -769,13 +970,13 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.69799999999999995</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="C15">
-        <v>0.155</v>
+        <v>-0.24399999999999999</v>
       </c>
       <c r="D15">
-        <v>0.91600000000000004</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -789,13 +990,13 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.95799999999999996</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="C16">
-        <v>0.872</v>
+        <v>0.434</v>
       </c>
       <c r="D16">
-        <v>0.98899999999999999</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -809,13 +1010,13 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.93300000000000005</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="C17">
-        <v>0.79800000000000004</v>
+        <v>0.39</v>
       </c>
       <c r="D17">
-        <v>0.98299999999999998</v>
+        <v>0.97</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -829,13 +1030,13 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.66100000000000003</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="C18">
-        <v>4.1000000000000002E-2</v>
+        <v>-2.5880000000000001</v>
       </c>
       <c r="D18">
-        <v>0.91400000000000003</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -849,13 +1050,13 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.60799999999999998</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="C19">
-        <v>-8.5999999999999993E-2</v>
+        <v>-1.895</v>
       </c>
       <c r="D19">
-        <v>0.89900000000000002</v>
+        <v>0.872</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -869,13 +1070,13 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.94699999999999995</v>
+        <v>0.86</v>
       </c>
       <c r="C20">
-        <v>0.83799999999999997</v>
+        <v>0.443</v>
       </c>
       <c r="D20">
-        <v>0.98699999999999999</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -889,13 +1090,13 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.92600000000000005</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="C21">
-        <v>0.77800000000000002</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="D21">
-        <v>0.98199999999999998</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -909,13 +1110,13 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.91800000000000004</v>
+        <v>0.753</v>
       </c>
       <c r="C22">
-        <v>0.66500000000000004</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="D22">
-        <v>0.98099999999999998</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -929,13 +1130,13 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.86899999999999999</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="C23">
-        <v>0.54700000000000004</v>
+        <v>0.317</v>
       </c>
       <c r="D23">
-        <v>0.97199999999999998</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -949,13 +1150,13 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.98699999999999999</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="C24">
-        <v>0.96</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="D24">
-        <v>0.997</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -969,13 +1170,13 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.71099999999999997</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="C25">
-        <v>0.1</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="D25">
-        <v>0.93600000000000005</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -989,13 +1190,13 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0.995</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="C26">
-        <v>0.98299999999999998</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="D26">
-        <v>0.999</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -1009,13 +1210,13 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0.98799999999999999</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="C27">
-        <v>0.96299999999999997</v>
+        <v>0.9</v>
       </c>
       <c r="D27">
-        <v>0.997</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -1029,13 +1230,13 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0.97799999999999998</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C28">
-        <v>0.93500000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="D28">
-        <v>0.995</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
